--- a/biology/Botanique/Prometheus_(arbre)/Prometheus_(arbre).xlsx
+++ b/biology/Botanique/Prometheus_(arbre)/Prometheus_(arbre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Prometheus (également connu sous le code WPN-114) est le surnom d'un pin de Bristlecone (Pinus longaeva) âgé probablement de plus de 5 000 ans et situé dans le Nevada au niveau de l'étage alpin. Il est abattu en 1964 dans le cadre d'une étude de la dynamique des climats du Petit âge glaciaire par dendrochronologie. Il était considéré comme le végétal le plus âgé de la planète jusqu'en 2008 où on a fait la découverte d'un bosquet d’épicéas âgé de 9 550 ans en Suède[1], Old Tjikko. Il s'agit néanmoins de l'arbre individuel le plus ancien connu.
+Prometheus (également connu sous le code WPN-114) est le surnom d'un pin de Bristlecone (Pinus longaeva) âgé probablement de plus de 5 000 ans et situé dans le Nevada au niveau de l'étage alpin. Il est abattu en 1964 dans le cadre d'une étude de la dynamique des climats du Petit âge glaciaire par dendrochronologie. Il était considéré comme le végétal le plus âgé de la planète jusqu'en 2008 où on a fait la découverte d'un bosquet d’épicéas âgé de 9 550 ans en Suède, Old Tjikko. Il s'agit néanmoins de l'arbre individuel le plus ancien connu.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors que l'arbre s'accroche à un pierrier inhospitalier ne fait guère plus de 5 mètres de hauteur, qu'il ne porte d'écorce que sur une toute petite fraction de sa large circonférence (8 % des 6,4 m, le reste du tronc étant à nu et s'érodant sous l'effet des gels), il est abattu le 6 août 1964 par Donald Rusk Currey (en), un doctorant et un membre du Service des forêts des États-Unis à des fins de recherche et alors que son âge n'était pas encore connu[2]. Depuis lors, c'est l'arbre Mathusalem qui est considéré comme le Bristlecone le plus âgé au monde.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que l'arbre s'accroche à un pierrier inhospitalier ne fait guère plus de 5 mètres de hauteur, qu'il ne porte d'écorce que sur une toute petite fraction de sa large circonférence (8 % des 6,4 m, le reste du tronc étant à nu et s'érodant sous l'effet des gels), il est abattu le 6 août 1964 par Donald Rusk Currey (en), un doctorant et un membre du Service des forêts des États-Unis à des fins de recherche et alors que son âge n'était pas encore connu. Depuis lors, c'est l'arbre Mathusalem qui est considéré comme le Bristlecone le plus âgé au monde.
 Il doit son nom à Prométhée, qui d'après la Théogonie d'Hésiode, créa les êtres humains à partir d'une motte d'argile.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Étude de l'arbre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre appartenait à une population de pins de Bristlecone qui poussent à la limite de l'étage alpin sur la moraine latérale d'un ancien glacier sur le pic Wheeler, où, depuis 1986, se trouve le parc national de Great Basin, dans le Nevada oriental. Le pic Wheeler est la plus haute montagne du Snake Range et la plus haute montagne située entièrement dans l'État de Nevada. La population de pins de Bristlecone qui y pousse se divise en au moins deux sous-populations distinctes, dont l'une est accessible par un sentier d'interprétation très fréquenté. Prometheus pourtant, a grandi dans une région où l'on ne peut se rendre que par des randonnées à pied hors piste. En 1958 ou en 1961, un groupe de naturalistes qui avaient admiré le bosquet où l'arbre avait poussé a donné des noms à un certain nombre d'arbres, les plus grands ou les plus curieux, y compris Prometheus. La désignation comme WPN-114 a été donnée par le chercheur Donald R. Currey et vient du fait que c'est le 114e arbre qu'il a retenu pour ses recherches dans le comté de White Pine au Nevada.
 Le compte des anneaux effectué par Currey sur la section de l'arbre était de 4 844. Quelques années plus tard, il a été porté à 4862 par Donald Graybill, du Laboratoire de recherche sur les cernes des arbres (université d'Arizona). En 2010, Chris Baisan et Matthew Salzer du même laboratoire ont affiné la mesure de l'âge, par interdatation, ce qui permet de tenir compte des anneaux manquants (fréquents dans les arbres poussant à la limite de l'étage alpin). Ils obtiennent 4 900 ans très précisément. Cependant, le compte des anneaux a été fait sur une coupe transversale du tronc prise à environ 2,5 m au-dessus du point de germination original de l'arbre, parce que les anneaux les plus centraux manquaient au-dessous de ce point. En ajoutant les années nécessaires pour atteindre cette hauteur, il est probable que l'arbre ait eu près de 5 000 ans au moment de la coupe. Cela fait de lui le plus vieil organisme unitaire (c'est-à-dire non-clonal) qu'on ait jamais connu, dépassant d'environ 200 ans l'arbre Mathusalem du Bosquet Schulman dans les Montagnes Blanches en Californie.
@@ -577,7 +593,9 @@
           <t>L'abattage de l'arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1950 les dendrochronologistes ont fait de grands efforts pour découvrir les espèces d'arbres actuelles les plus anciennes ; ils comptaient utiliser l'analyse des anneaux pour différents objectifs de recherche, comme la reconstitution d'anciens climats, la datation de ruines archéologiques et cette question fondamentale qui est la recherche des créatures actuelles les plus anciennes. Edward Schulman a découvert alors que les pins bristlecones dans les Montagnes blanches de Californie et ailleurs étaient plus vieux que n'importe quelle espèce déjà datée. On a eu donc envie de trouver des bristlecones très âgés, plus âgés peut-être que l'arbre Mathusalem, estimé par Schulman en 1957 à plus de 4700 ans.
 Donald R. Currey était doctorant à l'université de Caroline du Nord à Chapel Hill, et il étudiait la dynamique des climats du Petit âge glaciaire en utilisant les techniques de la dendrochronologie. En 1963 son attention fut attirée par les populations de bristlecones dans le Snake Range, et sur le pic Wheeler en particulier. En se fondant sur la taille, le taux de croissance et les formes de croissance de certains des arbres, il se convainquit qu'il existait sur la montagne quelques exemplaires très anciens et il préleva une carotte sur certains d'entre eux, trouvant des arbres dépassant 3 000 ans. Currey ne réussit pourtant pas à obtenir une série continue de carottages avec chevauchement pour WPN-114.
@@ -613,7 +631,9 @@
           <t>Répercussions de l'abattage de l'arbre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On[Qui ?] a soutenu que l'abattage de l'arbre a été un facteur important pour le mouvement de protection des bristlecones en général et des bosquets du pic Wheeler en particulier. Avant que l'arbre soit coupé, il y avait déjà eu un mouvement pour protéger les zones montagneuses et contiguës à l'intérieur d'un parc national et vingt-deux ans après l'incident la région a vraiment acquis le statut de parc national[réf. nécessaire].
 L'endroit exact de l'arbre qui est maintenant le plus vieux, Mathusalem, est gardé secret par l'agence chargée de l'administration, le Service des forêts américain. À cause de l'importance de l'espèce dans les recherches de dendrochronologie, tous les pins bristlecones sont maintenant protégés, qu'ils soient debout ou tombés.
